--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -488,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,15 +664,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,36 +707,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1018,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,43 +1048,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1132,58 +1129,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1208,23 +1205,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1247,7 @@
       <c r="H6" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="60" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -1280,7 +1277,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1311,7 +1308,7 @@
       <c r="H7" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="59" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="45" t="s">
@@ -1341,7 +1338,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1355,7 @@
       <c r="F8" s="58"/>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
       <c r="L8" s="45"/>
@@ -1370,7 +1367,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1384,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
@@ -1399,7 +1396,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1416,7 +1413,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="45"/>
       <c r="K10" s="1"/>
       <c r="L10" s="45"/>
@@ -1428,7 +1425,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1454,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1483,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1517,7 +1514,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1543,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1575,7 +1572,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1604,7 +1601,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2835,6 +2832,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2848,11 +2850,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2863,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2896,43 +2893,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2977,58 +2974,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3053,23 +3050,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3090,7 @@
         <v>63</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="59" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -3121,7 +3118,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3152,7 +3149,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="59" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="45" t="s">
@@ -3180,7 +3177,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3209,7 +3206,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3238,7 +3235,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3267,7 +3264,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3296,7 +3293,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3325,7 +3322,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3356,7 +3353,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3385,7 +3382,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3414,7 +3411,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3443,7 +3440,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4674,6 +4671,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4685,13 +4689,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4702,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4735,41 +4732,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4814,58 +4811,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4890,49 +4887,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44228</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44198</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="44">
+        <v>860906041206738</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4944,26 +4967,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42">
+        <v>44249</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44251</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="44">
+        <v>860906041220648</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4973,26 +5024,56 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="42">
+        <v>44228</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44198</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>867857039909952</v>
+      </c>
       <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5002,26 +5083,56 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42">
+        <v>44228</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44198</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>867857039894089</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>73</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5038,7 +5149,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="45"/>
       <c r="K10" s="1"/>
       <c r="L10" s="45"/>
@@ -5050,7 +5161,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5079,7 +5190,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5108,7 +5219,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5139,7 +5250,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5168,7 +5279,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5197,7 +5308,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5226,7 +5337,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5345,7 +5456,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -5377,7 +5488,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -5622,7 +5733,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -5750,7 +5861,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="16"/>
     </row>
@@ -5814,7 +5925,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -5846,7 +5957,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -5878,7 +5989,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -6457,13 +6568,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6475,6 +6579,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
